--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Persistent Systems Ltd/Pruned_Excel/Semi_Final/Persistent Systems Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Persistent Systems Ltd/Pruned_Excel/Semi_Final/Persistent Systems Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Persistent Systems(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Persistent Systems(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Persistent Systems(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>8.93</v>
-      </c>
-      <c r="C2">
-        <v>99.59</v>
       </c>
       <c r="D2">
         <v>99.59</v>
       </c>
       <c r="E2">
+        <v>99.59</v>
+      </c>
+      <c r="F2">
         <v>108.52</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14.26</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18.02</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>148.07</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>49.03</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>78.06999999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>96</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>52.07</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>148.07</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>10.24</v>
-      </c>
-      <c r="C3">
-        <v>201.68</v>
       </c>
       <c r="D3">
         <v>201.68</v>
       </c>
       <c r="E3">
+        <v>201.68</v>
+      </c>
+      <c r="F3">
         <v>211.92</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.75</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>27.03</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>239.57</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100.58</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>137.19</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>168.65</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>70.92</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>239.57</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>10.24</v>
-      </c>
-      <c r="C4">
-        <v>249.88</v>
       </c>
       <c r="D4">
         <v>249.88</v>
       </c>
       <c r="E4">
+        <v>249.88</v>
+      </c>
+      <c r="F4">
         <v>260.13</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11.06</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>43.43</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>303.89</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>126.69</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>174.21</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>215.73</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>88.15000000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>303.89</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>35.86</v>
-      </c>
-      <c r="C5">
-        <v>302.92</v>
       </c>
       <c r="D5">
         <v>302.92</v>
       </c>
       <c r="E5">
+        <v>302.92</v>
+      </c>
+      <c r="F5">
         <v>338.78</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>23.04</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>60.95</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>401.63</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>124.19</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>197.16</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>284.8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>116.83</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>401.63</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>35.86</v>
-      </c>
-      <c r="C6">
-        <v>358.82</v>
       </c>
       <c r="D6">
         <v>358.82</v>
       </c>
       <c r="E6">
+        <v>358.82</v>
+      </c>
+      <c r="F6">
         <v>394.68</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>35.82</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>81.36</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>477.92</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>138.39</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>217.06</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>327.28</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>150.64</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>477.92</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>40</v>
-      </c>
-      <c r="C7">
-        <v>599.16</v>
       </c>
       <c r="D7">
         <v>599.16</v>
       </c>
       <c r="E7">
+        <v>599.16</v>
+      </c>
+      <c r="F7">
         <v>639.16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>50.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>135.91</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>784.8200000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>121.99</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>226.63</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>405.23</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>379.59</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>784.8200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>40</v>
-      </c>
-      <c r="C8">
-        <v>704.34</v>
       </c>
       <c r="D8">
         <v>704.34</v>
       </c>
       <c r="E8">
+        <v>704.34</v>
+      </c>
+      <c r="F8">
         <v>744.34</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24.43</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>108.39</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>867.1799999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>161.28</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>267.7</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>311.54</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>555.65</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>867.1799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>40</v>
-      </c>
-      <c r="C9">
-        <v>797.74</v>
       </c>
       <c r="D9">
         <v>797.74</v>
       </c>
       <c r="E9">
+        <v>797.74</v>
+      </c>
+      <c r="F9">
         <v>837.74</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>45.04</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>118.21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>963.6900000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>240.27</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>331.07</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>432.27</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>531.4299999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>963.6900000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>40</v>
-      </c>
-      <c r="C10">
-        <v>966.04</v>
       </c>
       <c r="D10">
         <v>966.04</v>
       </c>
       <c r="E10">
+        <v>966.04</v>
+      </c>
+      <c r="F10">
         <v>1006.04</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19.58</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>113.6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1129.09</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>263.84</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>322.51</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>523.99</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>605.1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1129.09</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>40</v>
-      </c>
-      <c r="C11">
-        <v>1161.87</v>
       </c>
       <c r="D11">
         <v>1161.87</v>
       </c>
       <c r="E11">
+        <v>1161.87</v>
+      </c>
+      <c r="F11">
         <v>1201.87</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>33.58</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>133.88</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1348.35</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>255.52</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>302.27</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>552.54</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>795.8099999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1348.35</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>80</v>
-      </c>
-      <c r="C12">
-        <v>1274.88</v>
       </c>
       <c r="D12">
         <v>1274.88</v>
       </c>
       <c r="E12">
+        <v>1274.88</v>
+      </c>
+      <c r="F12">
         <v>1354.88</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>44.93</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>193.7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1562.46</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>287.18</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>311.18</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>652.48</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>909.98</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1562.46</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>80</v>
-      </c>
-      <c r="C13">
-        <v>1470.93</v>
       </c>
       <c r="D13">
         <v>1470.93</v>
       </c>
       <c r="E13">
+        <v>1470.93</v>
+      </c>
+      <c r="F13">
         <v>1550.93</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>51.49</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>212.1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1777.44</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>281.12</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>297.38</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>675.3200000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1102.12</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1777.44</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>80</v>
-      </c>
-      <c r="C14">
-        <v>1734.41</v>
       </c>
       <c r="D14">
         <v>1734.41</v>
       </c>
       <c r="E14">
+        <v>1734.41</v>
+      </c>
+      <c r="F14">
         <v>1814.41</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>48.37</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>217.89</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2059.49</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>250.11</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>275.2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>910.39</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1149.11</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2059.49</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>80</v>
-      </c>
-      <c r="C15">
-        <v>1973.2</v>
       </c>
       <c r="D15">
         <v>1973.2</v>
       </c>
       <c r="E15">
+        <v>1973.2</v>
+      </c>
+      <c r="F15">
         <v>2053.2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>95.31999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>209.8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2279</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>232.39</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>245.61</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>903.99</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1375.01</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2279</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>79.12</v>
-      </c>
-      <c r="C16">
-        <v>2142.07</v>
       </c>
       <c r="D16">
         <v>2142.07</v>
       </c>
       <c r="E16">
+        <v>2142.07</v>
+      </c>
+      <c r="F16">
         <v>2221.19</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>82.31999999999999</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>250.64</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2488.87</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>213.03</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>228.63</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1049.82</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1439.05</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2488.87</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>76.43000000000001</v>
-      </c>
-      <c r="C17">
-        <v>2192.96</v>
       </c>
       <c r="D17">
         <v>2192.96</v>
       </c>
       <c r="E17">
+        <v>2192.96</v>
+      </c>
+      <c r="F17">
         <v>2298.54</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>168.63</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>324.92</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2661.57</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>231.82</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>255.06</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1205.97</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1455.6</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2661.57</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>76.43000000000001</v>
-      </c>
-      <c r="C18">
-        <v>2641.98</v>
       </c>
       <c r="D18">
         <v>2641.98</v>
       </c>
       <c r="E18">
+        <v>2641.98</v>
+      </c>
+      <c r="F18">
         <v>2765.52</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>246.24</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>454.64</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3275.28</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>258.49</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>286.88</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1139.18</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2136.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3275.28</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>76.43000000000001</v>
-      </c>
-      <c r="C19">
-        <v>3127.98</v>
       </c>
       <c r="D19">
         <v>3127.98</v>
       </c>
       <c r="E19">
+        <v>3127.98</v>
+      </c>
+      <c r="F19">
         <v>3318.89</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>226.58</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>539.25</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3944.23</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>340.52</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>525.7</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1898.69</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2045.54</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3944.23</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>76.43000000000001</v>
-      </c>
-      <c r="C20">
-        <v>3643.02</v>
       </c>
       <c r="D20">
         <v>3643.02</v>
       </c>
       <c r="E20">
+        <v>3643.02</v>
+      </c>
+      <c r="F20">
         <v>3941.65</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>412.49</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>809.03</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4898.8</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>607.26</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>703.8200000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2413.22</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2485.58</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>4898.8</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>77.03</v>
-      </c>
-      <c r="C21">
-        <v>4478.86</v>
       </c>
       <c r="D21">
         <v>4478.86</v>
       </c>
       <c r="E21">
+        <v>4478.86</v>
+      </c>
+      <c r="F21">
         <v>4778.65</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>650.66</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1123.37</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6052</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>529.6799999999999</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>636.92</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2553.43</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3498.58</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>6052</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>42.51</v>
+      </c>
+      <c r="D3">
+        <v>42.52</v>
+      </c>
+      <c r="E3">
+        <v>-89.73999999999999</v>
+      </c>
+      <c r="F3">
+        <v>43.16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-4.06</v>
+      </c>
+      <c r="I3">
+        <v>4.99</v>
+      </c>
+      <c r="J3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>59.08</v>
+      </c>
+      <c r="D4">
+        <v>87.55</v>
+      </c>
+      <c r="E4">
+        <v>-78.31999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-3.29</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5.95</v>
+      </c>
+      <c r="I4">
+        <v>1.41</v>
+      </c>
+      <c r="J4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="D5">
+        <v>94.77</v>
+      </c>
+      <c r="E5">
+        <v>-90.42</v>
+      </c>
+      <c r="F5">
+        <v>-5.64</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-1.29</v>
+      </c>
+      <c r="I5">
+        <v>6.97</v>
+      </c>
+      <c r="J5">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>61.23</v>
+      </c>
+      <c r="D6">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="E6">
+        <v>-62.17</v>
+      </c>
+      <c r="F6">
+        <v>-3.59</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5.68</v>
+      </c>
+      <c r="J6">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>124.07</v>
+      </c>
+      <c r="D7">
+        <v>149.97</v>
+      </c>
+      <c r="E7">
+        <v>-105.94</v>
+      </c>
+      <c r="F7">
+        <v>126.4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>170.42</v>
+      </c>
+      <c r="I7">
+        <v>6.65</v>
+      </c>
+      <c r="J7">
+        <v>177.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>143.32</v>
+      </c>
+      <c r="D8">
+        <v>151.6</v>
+      </c>
+      <c r="E8">
+        <v>-247.13</v>
+      </c>
+      <c r="F8">
+        <v>-69.75</v>
+      </c>
+      <c r="G8">
+        <v>-0.01</v>
+      </c>
+      <c r="H8">
+        <v>-165.29</v>
+      </c>
+      <c r="I8">
+        <v>177.07</v>
+      </c>
+      <c r="J8">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>190.1</v>
+      </c>
+      <c r="D9">
+        <v>128.22</v>
+      </c>
+      <c r="E9">
+        <v>-105.69</v>
+      </c>
+      <c r="F9">
+        <v>-22.61</v>
+      </c>
+      <c r="G9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.59</v>
+      </c>
+      <c r="I9">
+        <v>11.78</v>
+      </c>
+      <c r="J9">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>246.6</v>
+      </c>
+      <c r="D10">
+        <v>193.79</v>
+      </c>
+      <c r="E10">
+        <v>-142.79</v>
+      </c>
+      <c r="F10">
+        <v>-38.72</v>
+      </c>
+      <c r="G10">
+        <v>0.13</v>
+      </c>
+      <c r="H10">
+        <v>12.42</v>
+      </c>
+      <c r="I10">
+        <v>14.37</v>
+      </c>
+      <c r="J10">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>341.98</v>
+      </c>
+      <c r="D11">
+        <v>243.35</v>
+      </c>
+      <c r="E11">
+        <v>-171.86</v>
+      </c>
+      <c r="F11">
+        <v>-49.69</v>
+      </c>
+      <c r="G11">
+        <v>-1.89</v>
+      </c>
+      <c r="H11">
+        <v>19.92</v>
+      </c>
+      <c r="I11">
+        <v>26.79</v>
+      </c>
+      <c r="J11">
+        <v>46.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>348.83</v>
+      </c>
+      <c r="D12">
+        <v>281.17</v>
+      </c>
+      <c r="E12">
+        <v>-214.48</v>
+      </c>
+      <c r="F12">
+        <v>-65.66</v>
+      </c>
+      <c r="G12">
+        <v>0.83</v>
+      </c>
+      <c r="H12">
+        <v>1.87</v>
+      </c>
+      <c r="I12">
+        <v>46.71</v>
+      </c>
+      <c r="J12">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>365.85</v>
+      </c>
+      <c r="D13">
+        <v>165.44</v>
+      </c>
+      <c r="E13">
+        <v>-36.99</v>
+      </c>
+      <c r="F13">
+        <v>-126.63</v>
+      </c>
+      <c r="G13">
+        <v>-0.35</v>
+      </c>
+      <c r="H13">
+        <v>1.47</v>
+      </c>
+      <c r="I13">
+        <v>48.57</v>
+      </c>
+      <c r="J13">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>403.74</v>
+      </c>
+      <c r="D14">
+        <v>194.52</v>
+      </c>
+      <c r="E14">
+        <v>-141.19</v>
+      </c>
+      <c r="F14">
+        <v>-58.41</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+      <c r="H14">
+        <v>-4.94</v>
+      </c>
+      <c r="I14">
+        <v>50.05</v>
+      </c>
+      <c r="J14">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>455.22</v>
+      </c>
+      <c r="D15">
+        <v>356.01</v>
+      </c>
+      <c r="E15">
+        <v>-286.02</v>
+      </c>
+      <c r="F15">
+        <v>-95.59999999999999</v>
+      </c>
+      <c r="G15">
+        <v>11.18</v>
+      </c>
+      <c r="H15">
+        <v>-14.44</v>
+      </c>
+      <c r="I15">
+        <v>45.1</v>
+      </c>
+      <c r="J15">
+        <v>30.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>438.38</v>
+      </c>
+      <c r="D16">
+        <v>339.63</v>
+      </c>
+      <c r="E16">
+        <v>-146.64</v>
+      </c>
+      <c r="F16">
+        <v>-159.37</v>
+      </c>
+      <c r="G16">
+        <v>-7.55</v>
+      </c>
+      <c r="H16">
+        <v>26.07</v>
+      </c>
+      <c r="I16">
+        <v>30.67</v>
+      </c>
+      <c r="J16">
+        <v>56.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>532.91</v>
+      </c>
+      <c r="D17">
+        <v>276.3</v>
+      </c>
+      <c r="E17">
+        <v>36.8</v>
+      </c>
+      <c r="F17">
+        <v>-321.02</v>
+      </c>
+      <c r="G17">
+        <v>4.68</v>
+      </c>
+      <c r="H17">
+        <v>-3.25</v>
+      </c>
+      <c r="I17">
+        <v>56.51</v>
+      </c>
+      <c r="J17">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>668.02</v>
+      </c>
+      <c r="D18">
+        <v>656.8</v>
+      </c>
+      <c r="E18">
+        <v>-493.78</v>
+      </c>
+      <c r="F18">
+        <v>-127.69</v>
+      </c>
+      <c r="G18">
+        <v>-2.32</v>
+      </c>
+      <c r="H18">
+        <v>33.01</v>
+      </c>
+      <c r="I18">
+        <v>53.26</v>
+      </c>
+      <c r="J18">
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>912.0599999999999</v>
+      </c>
+      <c r="D19">
+        <v>585.87</v>
+      </c>
+      <c r="E19">
+        <v>-392.61</v>
+      </c>
+      <c r="F19">
+        <v>-223.14</v>
+      </c>
+      <c r="G19">
+        <v>-0.03</v>
+      </c>
+      <c r="H19">
+        <v>-29.91</v>
+      </c>
+      <c r="I19">
+        <v>86.27</v>
+      </c>
+      <c r="J19">
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>1050.27</v>
+      </c>
+      <c r="D20">
+        <v>519.83</v>
+      </c>
+      <c r="E20">
+        <v>-110.07</v>
+      </c>
+      <c r="F20">
+        <v>-345.65</v>
+      </c>
+      <c r="G20">
+        <v>3.17</v>
+      </c>
+      <c r="H20">
+        <v>67.28</v>
+      </c>
+      <c r="I20">
+        <v>56.37</v>
+      </c>
+      <c r="J20">
+        <v>123.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>42.51</v>
-      </c>
-      <c r="C3">
-        <v>42.52</v>
-      </c>
-      <c r="D3">
-        <v>-89.73999999999999</v>
-      </c>
-      <c r="E3">
-        <v>43.16</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-4.06</v>
-      </c>
-      <c r="H3">
-        <v>4.99</v>
-      </c>
-      <c r="I3">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>59.08</v>
-      </c>
-      <c r="C4">
-        <v>87.55</v>
-      </c>
-      <c r="D4">
-        <v>-78.31999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-3.29</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5.95</v>
-      </c>
-      <c r="H4">
-        <v>1.41</v>
-      </c>
-      <c r="I4">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>89.43000000000001</v>
-      </c>
-      <c r="C5">
-        <v>94.77</v>
-      </c>
-      <c r="D5">
-        <v>-90.42</v>
-      </c>
-      <c r="E5">
-        <v>-5.64</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-1.29</v>
-      </c>
-      <c r="H5">
-        <v>6.97</v>
-      </c>
-      <c r="I5">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>61.23</v>
-      </c>
-      <c r="C6">
-        <v>66.76000000000001</v>
-      </c>
-      <c r="D6">
-        <v>-62.17</v>
-      </c>
-      <c r="E6">
-        <v>-3.59</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5.68</v>
-      </c>
-      <c r="I6">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>124.07</v>
-      </c>
-      <c r="C7">
-        <v>149.97</v>
-      </c>
-      <c r="D7">
-        <v>-105.94</v>
-      </c>
-      <c r="E7">
-        <v>126.4</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>170.42</v>
-      </c>
-      <c r="H7">
-        <v>6.65</v>
-      </c>
-      <c r="I7">
-        <v>177.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>143.32</v>
-      </c>
-      <c r="C8">
-        <v>151.6</v>
-      </c>
-      <c r="D8">
-        <v>-247.13</v>
-      </c>
-      <c r="E8">
-        <v>-69.75</v>
-      </c>
-      <c r="F8">
-        <v>-0.01</v>
-      </c>
-      <c r="G8">
-        <v>-165.29</v>
-      </c>
-      <c r="H8">
-        <v>177.07</v>
-      </c>
-      <c r="I8">
-        <v>11.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>190.1</v>
-      </c>
-      <c r="C9">
-        <v>128.22</v>
-      </c>
-      <c r="D9">
-        <v>-105.69</v>
-      </c>
-      <c r="E9">
-        <v>-22.61</v>
-      </c>
-      <c r="F9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G9">
-        <v>2.59</v>
-      </c>
-      <c r="H9">
-        <v>11.78</v>
-      </c>
-      <c r="I9">
-        <v>14.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>246.6</v>
-      </c>
-      <c r="C10">
-        <v>193.79</v>
-      </c>
-      <c r="D10">
-        <v>-142.79</v>
-      </c>
-      <c r="E10">
-        <v>-38.72</v>
-      </c>
-      <c r="F10">
-        <v>0.13</v>
-      </c>
-      <c r="G10">
-        <v>12.42</v>
-      </c>
-      <c r="H10">
-        <v>14.37</v>
-      </c>
-      <c r="I10">
-        <v>26.79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>341.98</v>
-      </c>
-      <c r="C11">
-        <v>243.35</v>
-      </c>
-      <c r="D11">
-        <v>-171.86</v>
-      </c>
-      <c r="E11">
-        <v>-49.69</v>
-      </c>
-      <c r="F11">
-        <v>-1.89</v>
-      </c>
-      <c r="G11">
-        <v>19.92</v>
-      </c>
-      <c r="H11">
-        <v>26.79</v>
-      </c>
-      <c r="I11">
-        <v>46.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>348.83</v>
-      </c>
-      <c r="C12">
-        <v>281.17</v>
-      </c>
-      <c r="D12">
-        <v>-214.48</v>
-      </c>
-      <c r="E12">
-        <v>-65.66</v>
-      </c>
-      <c r="F12">
-        <v>0.83</v>
-      </c>
-      <c r="G12">
-        <v>1.87</v>
-      </c>
-      <c r="H12">
-        <v>46.71</v>
-      </c>
-      <c r="I12">
-        <v>48.57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>365.85</v>
-      </c>
-      <c r="C13">
-        <v>165.44</v>
-      </c>
-      <c r="D13">
-        <v>-36.99</v>
-      </c>
-      <c r="E13">
-        <v>-126.63</v>
-      </c>
-      <c r="F13">
-        <v>-0.35</v>
-      </c>
-      <c r="G13">
-        <v>1.47</v>
-      </c>
-      <c r="H13">
-        <v>48.57</v>
-      </c>
-      <c r="I13">
-        <v>50.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>403.74</v>
-      </c>
-      <c r="C14">
-        <v>194.52</v>
-      </c>
-      <c r="D14">
-        <v>-141.19</v>
-      </c>
-      <c r="E14">
-        <v>-58.41</v>
-      </c>
-      <c r="F14">
-        <v>0.14</v>
-      </c>
-      <c r="G14">
-        <v>-4.94</v>
-      </c>
-      <c r="H14">
-        <v>50.05</v>
-      </c>
-      <c r="I14">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>455.22</v>
-      </c>
-      <c r="C15">
-        <v>356.01</v>
-      </c>
-      <c r="D15">
-        <v>-286.02</v>
-      </c>
-      <c r="E15">
-        <v>-95.59999999999999</v>
-      </c>
-      <c r="F15">
-        <v>11.18</v>
-      </c>
-      <c r="G15">
-        <v>-14.44</v>
-      </c>
-      <c r="H15">
-        <v>45.1</v>
-      </c>
-      <c r="I15">
-        <v>30.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>438.38</v>
-      </c>
-      <c r="C16">
-        <v>339.63</v>
-      </c>
-      <c r="D16">
-        <v>-146.64</v>
-      </c>
-      <c r="E16">
-        <v>-159.37</v>
-      </c>
-      <c r="F16">
-        <v>-7.55</v>
-      </c>
-      <c r="G16">
-        <v>26.07</v>
-      </c>
-      <c r="H16">
-        <v>30.67</v>
-      </c>
-      <c r="I16">
-        <v>56.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>532.91</v>
-      </c>
-      <c r="C17">
-        <v>276.3</v>
-      </c>
-      <c r="D17">
-        <v>36.8</v>
-      </c>
-      <c r="E17">
-        <v>-321.02</v>
-      </c>
-      <c r="F17">
-        <v>4.68</v>
-      </c>
-      <c r="G17">
-        <v>-3.25</v>
-      </c>
-      <c r="H17">
-        <v>56.51</v>
-      </c>
-      <c r="I17">
-        <v>53.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>668.02</v>
-      </c>
-      <c r="C18">
-        <v>656.8</v>
-      </c>
-      <c r="D18">
-        <v>-493.78</v>
-      </c>
-      <c r="E18">
-        <v>-127.69</v>
-      </c>
-      <c r="F18">
-        <v>-2.32</v>
-      </c>
-      <c r="G18">
-        <v>33.01</v>
-      </c>
-      <c r="H18">
-        <v>53.26</v>
-      </c>
-      <c r="I18">
-        <v>86.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>912.0599999999999</v>
-      </c>
-      <c r="C19">
-        <v>585.87</v>
-      </c>
-      <c r="D19">
-        <v>-392.61</v>
-      </c>
-      <c r="E19">
-        <v>-223.14</v>
-      </c>
-      <c r="F19">
-        <v>-0.03</v>
-      </c>
-      <c r="G19">
-        <v>-29.91</v>
-      </c>
-      <c r="H19">
-        <v>86.27</v>
-      </c>
-      <c r="I19">
-        <v>56.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>1050.27</v>
-      </c>
-      <c r="C20">
-        <v>519.83</v>
-      </c>
-      <c r="D20">
-        <v>-110.07</v>
-      </c>
-      <c r="E20">
-        <v>-345.65</v>
-      </c>
-      <c r="F20">
-        <v>3.17</v>
-      </c>
-      <c r="G20">
-        <v>67.28</v>
-      </c>
-      <c r="H20">
-        <v>56.37</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>1316.53</v>
+      </c>
+      <c r="D21">
+        <v>570.8099999999999</v>
+      </c>
+      <c r="E21">
+        <v>-44.68</v>
+      </c>
+      <c r="F21">
+        <v>-323.83</v>
+      </c>
+      <c r="G21">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H21">
+        <v>202.24</v>
+      </c>
+      <c r="I21">
         <v>123.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1316.53</v>
-      </c>
-      <c r="C21">
-        <v>570.8099999999999</v>
-      </c>
-      <c r="D21">
-        <v>-44.68</v>
-      </c>
-      <c r="E21">
-        <v>-323.83</v>
-      </c>
-      <c r="F21">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G21">
-        <v>202.24</v>
-      </c>
-      <c r="H21">
-        <v>123.65</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>325.88</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>141.98</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>141.98</v>
@@ -2328,66 +2421,69 @@
         <v>141.98</v>
       </c>
       <c r="E2">
+        <v>141.98</v>
+      </c>
+      <c r="F2">
         <v>2.12</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>144.11</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>72.16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.05</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11.95</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>109.15</v>
-      </c>
-      <c r="M2">
-        <v>34.96</v>
       </c>
       <c r="N2">
         <v>34.96</v>
       </c>
       <c r="O2">
+        <v>34.96</v>
+      </c>
+      <c r="P2">
         <v>0.41</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.01</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.42</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>34.54</v>
-      </c>
-      <c r="S2">
-        <v>34.51</v>
       </c>
       <c r="T2">
         <v>34.51</v>
       </c>
       <c r="U2">
-        <v>38.63</v>
+        <v>34.51</v>
       </c>
       <c r="V2">
         <v>38.63</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>38.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>209.18</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>209.18</v>
@@ -2396,66 +2492,69 @@
         <v>209.18</v>
       </c>
       <c r="E3">
+        <v>209.18</v>
+      </c>
+      <c r="F3">
         <v>2.15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>211.33</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.79</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>111.36</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>18.2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>33.58</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>168.82</v>
-      </c>
-      <c r="M3">
-        <v>42.51</v>
       </c>
       <c r="N3">
         <v>42.51</v>
       </c>
       <c r="O3">
+        <v>42.51</v>
+      </c>
+      <c r="P3">
         <v>0.29</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.21</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>41.51</v>
-      </c>
-      <c r="S3">
-        <v>40.71</v>
       </c>
       <c r="T3">
         <v>40.71</v>
       </c>
       <c r="U3">
-        <v>49.93</v>
+        <v>40.71</v>
       </c>
       <c r="V3">
         <v>49.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>49.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>297.06</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>297.06</v>
@@ -2464,66 +2563,69 @@
         <v>297.06</v>
       </c>
       <c r="E4">
+        <v>297.06</v>
+      </c>
+      <c r="F4">
         <v>-2.42</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>294.64</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7.11</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>161.51</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>26.75</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40.21</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>235.69</v>
-      </c>
-      <c r="M4">
-        <v>58.95</v>
       </c>
       <c r="N4">
         <v>58.95</v>
       </c>
       <c r="O4">
+        <v>58.95</v>
+      </c>
+      <c r="P4">
         <v>0.74</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.99</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>57.96</v>
-      </c>
-      <c r="S4">
-        <v>59.07</v>
       </c>
       <c r="T4">
         <v>59.07</v>
       </c>
       <c r="U4">
-        <v>72.45</v>
+        <v>59.07</v>
       </c>
       <c r="V4">
         <v>72.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>382.88</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>382.88</v>
@@ -2532,66 +2634,69 @@
         <v>382.88</v>
       </c>
       <c r="E5">
+        <v>382.88</v>
+      </c>
+      <c r="F5">
         <v>24.2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>407.08</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.93</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>214.74</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>27.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>44.18</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>317.65</v>
-      </c>
-      <c r="M5">
-        <v>89.43000000000001</v>
       </c>
       <c r="N5">
         <v>89.43000000000001</v>
       </c>
       <c r="O5">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="P5">
         <v>0.9</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.2</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>87.23</v>
-      </c>
-      <c r="S5">
-        <v>83.70999999999999</v>
       </c>
       <c r="T5">
         <v>83.70999999999999</v>
       </c>
       <c r="U5">
-        <v>23.34</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="V5">
         <v>23.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>519.6900000000001</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>519.6900000000001</v>
@@ -2600,66 +2705,69 @@
         <v>519.6900000000001</v>
       </c>
       <c r="E6">
+        <v>519.6900000000001</v>
+      </c>
+      <c r="F6">
         <v>-80.65000000000001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>439.04</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>43.7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>251.92</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>29.47</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>52.71</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>377.81</v>
-      </c>
-      <c r="M6">
-        <v>61.23</v>
       </c>
       <c r="N6">
         <v>61.23</v>
       </c>
       <c r="O6">
+        <v>61.23</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-1.89</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.16</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>60.08</v>
-      </c>
-      <c r="S6">
-        <v>58.6</v>
       </c>
       <c r="T6">
         <v>58.6</v>
       </c>
       <c r="U6">
-        <v>16.34</v>
+        <v>58.6</v>
       </c>
       <c r="V6">
         <v>16.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>504.41</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>504.41</v>
@@ -2668,66 +2776,69 @@
         <v>504.41</v>
       </c>
       <c r="E7">
+        <v>504.41</v>
+      </c>
+      <c r="F7">
         <v>9.789999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>514.2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>50.19</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>260.54</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>32.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>48.67</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>391.9</v>
-      </c>
-      <c r="M7">
-        <v>122.3</v>
       </c>
       <c r="N7">
         <v>122.3</v>
       </c>
       <c r="O7">
+        <v>122.3</v>
+      </c>
+      <c r="P7">
         <v>4.88</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.84</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.71</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>116.59</v>
-      </c>
-      <c r="S7">
-        <v>117.05</v>
       </c>
       <c r="T7">
         <v>117.05</v>
       </c>
       <c r="U7">
-        <v>29.26</v>
+        <v>117.05</v>
       </c>
       <c r="V7">
         <v>29.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>29.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>610.13</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>610.13</v>
@@ -2736,46 +2847,46 @@
         <v>610.13</v>
       </c>
       <c r="E8">
+        <v>610.13</v>
+      </c>
+      <c r="F8">
         <v>38.6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>648.73</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>48.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>333.83</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>39.51</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>83.37</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>505.41</v>
-      </c>
-      <c r="M8">
-        <v>143.32</v>
       </c>
       <c r="N8">
         <v>143.32</v>
       </c>
       <c r="O8">
+        <v>143.32</v>
+      </c>
+      <c r="P8">
         <v>27.06</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-4.85</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>9.73</v>
-      </c>
-      <c r="R8">
-        <v>133.59</v>
       </c>
       <c r="S8">
         <v>133.59</v>
@@ -2784,18 +2895,21 @@
         <v>133.59</v>
       </c>
       <c r="U8">
+        <v>133.59</v>
+      </c>
+      <c r="V8">
         <v>35.41</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>33.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>810.36</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>810.36</v>
@@ -2804,46 +2918,46 @@
         <v>810.36</v>
       </c>
       <c r="E9">
+        <v>810.36</v>
+      </c>
+      <c r="F9">
         <v>32.38</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>842.74</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>63.24</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>429.88</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>56.44</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>103.09</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>652.64</v>
-      </c>
-      <c r="M9">
-        <v>190.1</v>
       </c>
       <c r="N9">
         <v>190.1</v>
       </c>
       <c r="O9">
+        <v>190.1</v>
+      </c>
+      <c r="P9">
         <v>54.64</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-1.93</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>52.71</v>
-      </c>
-      <c r="R9">
-        <v>137.39</v>
       </c>
       <c r="S9">
         <v>137.39</v>
@@ -2852,18 +2966,21 @@
         <v>137.39</v>
       </c>
       <c r="U9">
+        <v>137.39</v>
+      </c>
+      <c r="V9">
         <v>35.87</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>34.35</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>996.75</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>996.75</v>
@@ -2872,46 +2989,46 @@
         <v>996.75</v>
       </c>
       <c r="E10">
+        <v>996.75</v>
+      </c>
+      <c r="F10">
         <v>37.81</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1034.56</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>97.31</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>477.86</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.04</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>59.7</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>153.06</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>787.96</v>
-      </c>
-      <c r="M10">
-        <v>246.6</v>
       </c>
       <c r="N10">
         <v>246.6</v>
       </c>
       <c r="O10">
+        <v>246.6</v>
+      </c>
+      <c r="P10">
         <v>69.26000000000001</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-3.53</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>64.79000000000001</v>
-      </c>
-      <c r="R10">
-        <v>181.81</v>
       </c>
       <c r="S10">
         <v>181.81</v>
@@ -2920,18 +3037,21 @@
         <v>181.81</v>
       </c>
       <c r="U10">
+        <v>181.81</v>
+      </c>
+      <c r="V10">
         <v>47.12</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>45.45</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1184.12</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>1184.12</v>
@@ -2940,46 +3060,46 @@
         <v>1184.12</v>
       </c>
       <c r="E11">
+        <v>1184.12</v>
+      </c>
+      <c r="F11">
         <v>37.13</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1221.24</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>109.46</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>558.17</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.05</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>58.41</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>153.17</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>879.26</v>
-      </c>
-      <c r="M11">
-        <v>341.98</v>
       </c>
       <c r="N11">
         <v>341.98</v>
       </c>
       <c r="O11">
+        <v>341.98</v>
+      </c>
+      <c r="P11">
         <v>97.06</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-2.47</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>93.41</v>
-      </c>
-      <c r="R11">
-        <v>248.57</v>
       </c>
       <c r="S11">
         <v>248.57</v>
@@ -2988,18 +3108,21 @@
         <v>248.57</v>
       </c>
       <c r="U11">
+        <v>248.57</v>
+      </c>
+      <c r="V11">
         <v>63.89</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>62.14</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1242.5</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1242.5</v>
@@ -3008,46 +3131,46 @@
         <v>1242.5</v>
       </c>
       <c r="E12">
+        <v>1242.5</v>
+      </c>
+      <c r="F12">
         <v>95.67</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1338.17</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>142.7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>633.3099999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.34</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>49.17</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>163.83</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>989.34</v>
-      </c>
-      <c r="M12">
-        <v>348.83</v>
       </c>
       <c r="N12">
         <v>348.83</v>
       </c>
       <c r="O12">
+        <v>348.83</v>
+      </c>
+      <c r="P12">
         <v>87.43000000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.1</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>89.53</v>
-      </c>
-      <c r="R12">
-        <v>259.3</v>
       </c>
       <c r="S12">
         <v>259.3</v>
@@ -3056,18 +3179,21 @@
         <v>259.3</v>
       </c>
       <c r="U12">
+        <v>259.3</v>
+      </c>
+      <c r="V12">
         <v>32.87</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>32.41</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1447.14</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>1447.14</v>
@@ -3076,46 +3202,46 @@
         <v>1447.14</v>
       </c>
       <c r="E13">
+        <v>1447.14</v>
+      </c>
+      <c r="F13">
         <v>80.65000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1527.78</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>161.61</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>697.83</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.09</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>58.59</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>243.81</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1161.94</v>
-      </c>
-      <c r="M13">
-        <v>365.85</v>
       </c>
       <c r="N13">
         <v>365.85</v>
       </c>
       <c r="O13">
+        <v>365.85</v>
+      </c>
+      <c r="P13">
         <v>97.89</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3.11</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>100.39</v>
-      </c>
-      <c r="R13">
-        <v>265.46</v>
       </c>
       <c r="S13">
         <v>265.46</v>
@@ -3124,18 +3250,21 @@
         <v>265.46</v>
       </c>
       <c r="U13">
+        <v>265.46</v>
+      </c>
+      <c r="V13">
         <v>33.26</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>33.18</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1732.96</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1732.96</v>
@@ -3144,46 +3273,46 @@
         <v>1732.96</v>
       </c>
       <c r="E14">
+        <v>1732.96</v>
+      </c>
+      <c r="F14">
         <v>94.62</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1827.59</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>219.36</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>868.27</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.09</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>60.97</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>275.16</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1423.84</v>
-      </c>
-      <c r="M14">
-        <v>403.74</v>
       </c>
       <c r="N14">
         <v>403.74</v>
       </c>
       <c r="O14">
+        <v>403.74</v>
+      </c>
+      <c r="P14">
         <v>108.68</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1.87</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>109.71</v>
-      </c>
-      <c r="R14">
-        <v>294.03</v>
       </c>
       <c r="S14">
         <v>294.03</v>
@@ -3192,18 +3321,21 @@
         <v>294.03</v>
       </c>
       <c r="U14">
-        <v>36.75</v>
+        <v>294.03</v>
       </c>
       <c r="V14">
         <v>36.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1732.75</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1732.75</v>
@@ -3212,46 +3344,46 @@
         <v>1732.75</v>
       </c>
       <c r="E15">
+        <v>1732.75</v>
+      </c>
+      <c r="F15">
         <v>127.68</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1860.43</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>213.3</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>874.0700000000001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.06</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>53.78</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>264</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1405.22</v>
-      </c>
-      <c r="M15">
-        <v>455.22</v>
       </c>
       <c r="N15">
         <v>455.22</v>
       </c>
       <c r="O15">
+        <v>455.22</v>
+      </c>
+      <c r="P15">
         <v>117.59</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-4.09</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>113.1</v>
-      </c>
-      <c r="R15">
-        <v>342.12</v>
       </c>
       <c r="S15">
         <v>342.12</v>
@@ -3260,18 +3392,21 @@
         <v>342.12</v>
       </c>
       <c r="U15">
-        <v>42.76</v>
+        <v>342.12</v>
       </c>
       <c r="V15">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>42.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1959.87</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1959.87</v>
@@ -3280,46 +3415,46 @@
         <v>1959.87</v>
       </c>
       <c r="E16">
+        <v>1959.87</v>
+      </c>
+      <c r="F16">
         <v>103.79</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2063.66</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>219.52</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>949.12</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.05</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>45.88</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>410.7</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1625.28</v>
-      </c>
-      <c r="M16">
-        <v>438.38</v>
       </c>
       <c r="N16">
         <v>438.38</v>
       </c>
       <c r="O16">
+        <v>438.38</v>
+      </c>
+      <c r="P16">
         <v>128.32</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-11.45</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>123.37</v>
-      </c>
-      <c r="R16">
-        <v>315.01</v>
       </c>
       <c r="S16">
         <v>315.01</v>
@@ -3328,18 +3463,21 @@
         <v>315.01</v>
       </c>
       <c r="U16">
-        <v>39.4</v>
+        <v>315.01</v>
       </c>
       <c r="V16">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>2108.12</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2108.12</v>
@@ -3348,46 +3486,46 @@
         <v>2108.12</v>
       </c>
       <c r="E17">
+        <v>2108.12</v>
+      </c>
+      <c r="F17">
         <v>159.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2268.03</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>182.54</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1102.91</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4.45</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>55.51</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>389.71</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1735.12</v>
-      </c>
-      <c r="M17">
-        <v>532.91</v>
       </c>
       <c r="N17">
         <v>532.91</v>
       </c>
       <c r="O17">
+        <v>532.91</v>
+      </c>
+      <c r="P17">
         <v>129.79</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-4.45</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>125.18</v>
-      </c>
-      <c r="R17">
-        <v>407.72</v>
       </c>
       <c r="S17">
         <v>407.72</v>
@@ -3396,18 +3534,21 @@
         <v>407.72</v>
       </c>
       <c r="U17">
-        <v>53.17</v>
+        <v>407.72</v>
       </c>
       <c r="V17">
         <v>53.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>2479.61</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>2479.61</v>
@@ -3416,46 +3557,46 @@
         <v>2479.61</v>
       </c>
       <c r="E18">
+        <v>2479.61</v>
+      </c>
+      <c r="F18">
         <v>117.62</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2597.22</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>177.51</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1409.32</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.82</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>56.68</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>281.88</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1929.2</v>
-      </c>
-      <c r="M18">
-        <v>668.02</v>
       </c>
       <c r="N18">
         <v>668.02</v>
       </c>
       <c r="O18">
+        <v>668.02</v>
+      </c>
+      <c r="P18">
         <v>168.4</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-5.74</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>162.93</v>
-      </c>
-      <c r="R18">
-        <v>505.09</v>
       </c>
       <c r="S18">
         <v>505.09</v>
@@ -3464,18 +3605,21 @@
         <v>505.09</v>
       </c>
       <c r="U18">
-        <v>66.09</v>
+        <v>505.09</v>
       </c>
       <c r="V18">
         <v>66.09</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>3575.48</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>3575.48</v>
@@ -3484,46 +3628,46 @@
         <v>3575.48</v>
       </c>
       <c r="E19">
+        <v>3575.48</v>
+      </c>
+      <c r="F19">
         <v>132.46</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3707.94</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>146.19</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2188.27</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6.88</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>83.76000000000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>370.78</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2795.88</v>
-      </c>
-      <c r="M19">
-        <v>912.0599999999999</v>
       </c>
       <c r="N19">
         <v>912.0599999999999</v>
       </c>
       <c r="O19">
+        <v>912.0599999999999</v>
+      </c>
+      <c r="P19">
         <v>223.66</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1.19</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>226.2</v>
-      </c>
-      <c r="R19">
-        <v>685.87</v>
       </c>
       <c r="S19">
         <v>685.87</v>
@@ -3532,18 +3676,21 @@
         <v>685.87</v>
       </c>
       <c r="U19">
-        <v>89.73999999999999</v>
+        <v>685.87</v>
       </c>
       <c r="V19">
         <v>89.73999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>89.73999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>5117.55</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5117.55</v>
@@ -3552,46 +3699,46 @@
         <v>5117.55</v>
       </c>
       <c r="E20">
+        <v>5117.55</v>
+      </c>
+      <c r="F20">
         <v>73.87</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5191.42</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>251.78</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3141.73</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13.1</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>134.49</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>570.4</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4111.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1079.93</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1050.27</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>270.65</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-11.51</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>259.14</v>
-      </c>
-      <c r="R20">
-        <v>791.13</v>
       </c>
       <c r="S20">
         <v>791.13</v>
@@ -3600,18 +3747,21 @@
         <v>791.13</v>
       </c>
       <c r="U20">
-        <v>103.52</v>
+        <v>791.13</v>
       </c>
       <c r="V20">
         <v>103.52</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>6514.22</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>6514.22</v>
@@ -3620,46 +3770,46 @@
         <v>6514.22</v>
       </c>
       <c r="E21">
+        <v>6514.22</v>
+      </c>
+      <c r="F21">
         <v>164.49</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6678.7</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>598.76</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3834.58</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>16.98</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>162.36</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>749.49</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5362.17</v>
-      </c>
-      <c r="M21">
-        <v>1316.53</v>
       </c>
       <c r="N21">
         <v>1316.53</v>
       </c>
       <c r="O21">
+        <v>1316.53</v>
+      </c>
+      <c r="P21">
         <v>341.46</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-10.6</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>330.86</v>
-      </c>
-      <c r="R21">
-        <v>985.67</v>
       </c>
       <c r="S21">
         <v>985.67</v>
@@ -3668,9 +3818,12 @@
         <v>985.67</v>
       </c>
       <c r="U21">
+        <v>985.67</v>
+      </c>
+      <c r="V21">
         <v>64.06</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>64.06</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>307.93</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>304.13</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>307.81</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>290.71</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>301.06</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>324</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>326.73</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>335.52</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>347.75</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>383.1</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>380.77</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>417.3</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>422.49</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>462.63</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>430.55</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>427.24</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>437.49</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>430.01</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>438.01</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>461.99</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>493.63</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>487.98</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>516.27</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>495.4</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>501.71</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>544.88</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>566.14</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>556.14</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>596.1799999999999</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>642.63</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>684.66</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>764.83</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>846.99</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>928.65</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>1035.01</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>1102.08</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>1224.77</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>1307.23</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>1483.48</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>1544.53</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>1669.37</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>1669.41</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>1630.9</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>2691.4</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>2847.41</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>158.94</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>52.56</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>39.19</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>39.13</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>38.63</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>33.06</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24.65</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>24.62</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>24.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>31.79</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>23.3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.19</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5.02</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3.73</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>94.98</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>256.58</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>75.56</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>53.24</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>52.14</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>49.93</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>29.44</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20.74</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20.32</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19.46</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19.4</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>16.99</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>5.27</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3.64</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>94.73</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>364.3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>105.23</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>72.43000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>72.29000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>72.45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.88</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19.88</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19.84</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>19.88</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>22.89</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>19.43</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>4.14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.85</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>95.86</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>106.77</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>32.69</v>
-      </c>
-      <c r="D5">
-        <v>24.94</v>
       </c>
       <c r="E5">
         <v>24.94</v>
       </c>
       <c r="F5">
+        <v>24.94</v>
+      </c>
+      <c r="G5">
         <v>23.34</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.61</v>
-      </c>
-      <c r="H5">
-        <v>23.35</v>
       </c>
       <c r="I5">
         <v>23.35</v>
       </c>
       <c r="J5">
+        <v>23.35</v>
+      </c>
+      <c r="K5">
         <v>21.86</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>24.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>20.84</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>5.14</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3.85</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>94.86</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>144.92</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>25.29</v>
-      </c>
-      <c r="D6">
-        <v>17.08</v>
       </c>
       <c r="E6">
         <v>17.08</v>
       </c>
       <c r="F6">
+        <v>17.08</v>
+      </c>
+      <c r="G6">
         <v>16.34</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17.45</v>
-      </c>
-      <c r="H6">
-        <v>11.78</v>
       </c>
       <c r="I6">
         <v>11.78</v>
       </c>
       <c r="J6">
+        <v>11.78</v>
+      </c>
+      <c r="K6">
         <v>11.27</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14.84</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.26</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>6.11</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4.07</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>93.89</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>126.1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>38.7</v>
-      </c>
-      <c r="D7">
-        <v>30.58</v>
       </c>
       <c r="E7">
         <v>30.58</v>
       </c>
       <c r="F7">
+        <v>30.58</v>
+      </c>
+      <c r="G7">
         <v>29.26</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30.68</v>
-      </c>
-      <c r="H7">
-        <v>24.24</v>
       </c>
       <c r="I7">
         <v>24.24</v>
       </c>
       <c r="J7">
+        <v>24.24</v>
+      </c>
+      <c r="K7">
         <v>23.2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>18.31</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14.91</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>8.359999999999999</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6.54</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>91.64</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>152.53</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>45.71</v>
-      </c>
-      <c r="D8">
-        <v>35.83</v>
       </c>
       <c r="E8">
         <v>35.83</v>
       </c>
       <c r="F8">
+        <v>35.83</v>
+      </c>
+      <c r="G8">
         <v>33.4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.96</v>
-      </c>
-      <c r="H8">
-        <v>23.48</v>
       </c>
       <c r="I8">
         <v>23.48</v>
       </c>
       <c r="J8">
+        <v>23.48</v>
+      </c>
+      <c r="K8">
         <v>21.89</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>17.94</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15.4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>16.46</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>12.7</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>83.54000000000001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1380</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>7.55</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>202.59</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>61.63</v>
-      </c>
-      <c r="D9">
-        <v>47.52</v>
       </c>
       <c r="E9">
         <v>47.52</v>
       </c>
       <c r="F9">
+        <v>47.52</v>
+      </c>
+      <c r="G9">
         <v>34.35</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.42</v>
-      </c>
-      <c r="H9">
-        <v>23.45</v>
       </c>
       <c r="I9">
         <v>23.45</v>
       </c>
       <c r="J9">
+        <v>23.45</v>
+      </c>
+      <c r="K9">
         <v>16.95</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>16.39</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>14.25</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>17.46</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>12.38</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>82.54000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1175.46</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.77</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>249.19</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>76.58</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>61.66</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>61.65</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>45.45</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.73</v>
-      </c>
-      <c r="H10">
-        <v>24.74</v>
       </c>
       <c r="I10">
         <v>24.74</v>
       </c>
       <c r="J10">
+        <v>24.74</v>
+      </c>
+      <c r="K10">
         <v>18.24</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>18.07</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>16.1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>19.8</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14.9</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>80.2</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2138.21</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6.98</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>296.03</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>100.11</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>85.51000000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>85.5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>62.14</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>33.81</v>
-      </c>
-      <c r="H11">
-        <v>28.88</v>
       </c>
       <c r="I11">
         <v>28.88</v>
       </c>
       <c r="J11">
+        <v>28.88</v>
+      </c>
+      <c r="K11">
         <v>20.99</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>20.68</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>18.43</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>19.31</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>15.63</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>80.69</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4135.05</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10.33</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>155.31</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>49.79</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>43.65</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>43.6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>32.41</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>32.05</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>28.1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>28.07</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20.86</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>19.13</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>16.59</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>30.85</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>25.93</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>69.15000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5606.83</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14.08</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>180.89</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>53.07</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>45.74</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>45.73</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>33.18</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.33</v>
-      </c>
-      <c r="H13">
-        <v>25.28</v>
       </c>
       <c r="I13">
         <v>25.28</v>
       </c>
       <c r="J13">
+        <v>25.28</v>
+      </c>
+      <c r="K13">
         <v>18.34</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17.11</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>14.93</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>24.1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>19.75</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>75.90000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6042.77</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14.23</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>216.62</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>58.1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>50.48</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50.47</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>36.75</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>26.82</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>23.29</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>16.96</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>16.2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>14.27</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>16.32</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>13.52</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>83.68000000000001</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4717.64</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>10.15</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>216.59</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>63.63</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>56.91</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>56.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>42.76</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>29.37</v>
-      </c>
-      <c r="H15">
-        <v>26.27</v>
       </c>
       <c r="I15">
         <v>26.27</v>
       </c>
       <c r="J15">
+        <v>26.27</v>
+      </c>
+      <c r="K15">
         <v>19.74</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16.66</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15.01</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>23.38</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>20.2</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>76.62</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>5409.07</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>10.63</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>247.71</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>61.21</v>
-      </c>
-      <c r="D16">
-        <v>55.41</v>
       </c>
       <c r="E16">
         <v>55.41</v>
       </c>
       <c r="F16">
+        <v>55.41</v>
+      </c>
+      <c r="G16">
         <v>39.81</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>24.71</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>22.37</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>22.36</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>16.07</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>14.18</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>12.65</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>27.93</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>24.38</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>72.06999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>4488.68</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>9.27</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>275.84</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>77.58</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>70.31</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>69.73</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>53.35</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>28.12</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>25.48</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>25.27</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>19.34</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>17.73</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15.31</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>28.11</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>24.74</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>71.89</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3917.93</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6.61</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>324.45</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>95.31999999999999</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>87.91</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>87.41</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>66.09</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>29.38</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>27.09</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>26.94</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>20.36</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>18.26</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>15.42</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>21.18</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>19.04</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>78.81999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>13839.63</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>467.84</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>131.2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>120.24</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>119.34</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>89.73999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>28.04</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>25.7</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>25.5</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19.18</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>20.66</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>17.38</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>28.97</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>25.81</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>71.03</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>35800.09</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>35.7</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>669.62</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>160.62</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>143.02</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>137.43</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>103.52</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>23.98</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.35</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20.52</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>15.45</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>20.07</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>16.14</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>37.67</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>32.2</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>62.33</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>34685.21</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>28.26</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>422.86</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>97.09999999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>86.56</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>85.45999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>63.98</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>22.96</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20.47</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>20.21</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>15.13</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20.62</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>16.28</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>42.14</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>36.18</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>57.86</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>60804.65</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>40.65</v>
       </c>
     </row>
